--- a/data-raw/futures.xlsx
+++ b/data-raw/futures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrenne/Dropbox/Book_AssetPricing_DT_AffineProcesses_MPRR/DTAM/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FA805A6-52CB-C043-9855-81756BA66F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71C6B2B-642B-D64C-8DE5-6A379819A4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
